--- a/data/evaluation/evaluation_South_Winter_Clementines.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Clementines.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2407.090076039171</v>
+        <v>2412.929156498942</v>
       </c>
       <c r="C3" t="n">
-        <v>13942748.94834421</v>
+        <v>13946789.59202237</v>
       </c>
       <c r="D3" t="n">
-        <v>3733.999055750311</v>
+        <v>3734.540077710021</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1549848588501201</v>
+        <v>0.1547399713390069</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2485.401846293687</v>
+        <v>2530.678833232997</v>
       </c>
       <c r="C4" t="n">
-        <v>14192502.93261294</v>
+        <v>14587339.99759836</v>
       </c>
       <c r="D4" t="n">
-        <v>3767.293847394033</v>
+        <v>3819.337638596299</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1398482527868916</v>
+        <v>0.1159187321854694</v>
       </c>
     </row>
     <row r="5">
